--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/WISCONSIN_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/WISCONSIN_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1181"/>
+  <dimension ref="A1:D1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C73">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C83">
@@ -1748,7 +1748,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C104">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C110">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C125">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C137">
@@ -2356,12 +2356,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C150">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C154">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C159">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C163">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C166">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C171">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C175">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C183">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C190">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C193">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C201">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C207">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C213">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C225">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C232">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C236">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C243">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C247">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C249">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C252">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C254">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C258">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C262">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C265">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C268">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C275">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C281">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C285">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C296">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C309">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C313">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C324">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C327">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C332">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C335">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C345">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C347">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C352">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C356">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C358">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C365">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C369">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C374">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C375">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C378">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C385">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C391">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C401">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C408">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C413">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C414">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C417">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C419">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C422">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C426">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C433">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C444">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C449">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C452">
@@ -6546,7 +6546,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C470">
@@ -7222,7 +7222,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C522">
@@ -7474,7 +7474,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C541">
@@ -7565,7 +7565,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C548">
@@ -7591,7 +7591,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C550">
@@ -7656,7 +7656,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C555">
@@ -7669,7 +7669,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C556">
@@ -7791,7 +7791,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C565">
@@ -8043,7 +8043,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C584">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C587">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C593">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C596">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C598">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C605">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C610">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C612">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C617">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C620">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C632">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C664">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C675">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C686">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C704">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C708">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C716">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C745">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C754">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C756">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C757">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C758">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C759">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C761">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C762">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C764">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C765">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C768">
@@ -10627,7 +10627,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C782">
@@ -10770,7 +10770,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C793">
@@ -10874,7 +10874,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C801">
@@ -10939,7 +10939,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C806">
@@ -11030,7 +11030,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C813">
@@ -11082,7 +11082,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C817">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C827">
@@ -11238,7 +11238,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C829">
@@ -11368,7 +11368,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C839">
@@ -11394,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C841">
@@ -11446,7 +11446,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C845">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C856">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C867">
@@ -11763,7 +11763,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C869">
@@ -11815,7 +11815,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C873">
@@ -11867,7 +11867,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C877">
@@ -11981,7 +11981,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C885">
@@ -12046,7 +12046,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C890">
@@ -12124,7 +12124,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C896">
@@ -12176,7 +12176,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C900">
@@ -12254,7 +12254,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C906">
@@ -12280,7 +12280,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C908">
@@ -12293,7 +12293,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C909">
@@ -12306,7 +12306,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C910">
@@ -12319,7 +12319,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C911">
@@ -12802,7 +12802,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C947">
@@ -13106,7 +13106,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C970">
@@ -13293,7 +13293,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C984">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1003">
@@ -13584,7 +13584,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1006">
@@ -13662,7 +13662,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1012">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1017">
@@ -13753,7 +13753,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1019">
@@ -13909,7 +13909,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1031">
@@ -14091,7 +14091,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1045">
@@ -14104,7 +14104,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1046">
@@ -14130,7 +14130,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1048">
@@ -14143,7 +14143,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1049">
@@ -14156,7 +14156,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1050">
@@ -14260,7 +14260,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1058">
@@ -14286,7 +14286,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1060">
@@ -14312,7 +14312,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1062">
@@ -14364,7 +14364,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1066">
@@ -14390,7 +14390,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1068">
@@ -14429,7 +14429,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1071">
@@ -14455,7 +14455,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1073">
@@ -14598,7 +14598,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1084">
@@ -14611,7 +14611,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1085">
@@ -14650,7 +14650,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1088">
@@ -14728,7 +14728,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1094">
@@ -14767,7 +14767,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1097">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1100">
@@ -15001,7 +15001,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1115">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1124">
@@ -15362,7 +15362,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1142">
@@ -15466,7 +15466,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1150">
@@ -15557,7 +15557,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1157">
@@ -15570,7 +15570,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1158">
@@ -15661,7 +15661,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1165">
@@ -15674,7 +15674,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1166">
@@ -15687,7 +15687,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1167">
@@ -15799,41 +15799,6 @@
       </c>
       <c r="D1175">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
